--- a/server/result_shipments.xlsx
+++ b/server/result_shipments.xlsx
@@ -397,10 +397,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
+  <cols>
+    <col min="1" max="1" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
+    <col min="9" max="9" width="15.83203125" customWidth="1"/>
+    <col min="10" max="10" width="19.83203125" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" customWidth="1"/>
+    <col min="15" max="15" width="11.83203125" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" customWidth="1"/>
+    <col min="17" max="17" width="38.83203125" customWidth="1"/>
+    <col min="18" max="18" width="8.83203125" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" customWidth="1"/>
+    <col min="20" max="20" width="14.83203125" customWidth="1"/>
+    <col min="21" max="21" width="9.83203125" customWidth="1"/>
+    <col min="22" max="22" width="19.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -443,19 +467,31 @@
         <v>currency</v>
       </c>
       <c r="N1" t="str">
-        <v>FEDEX_SERVICE</v>
+        <v>Carrier</v>
       </c>
       <c r="O1" t="str">
-        <v>FEDEX_RATE</v>
+        <v>Account</v>
       </c>
       <c r="P1" t="str">
-        <v>FEDEX_CURRENCY</v>
+        <v>Account Key</v>
       </c>
       <c r="Q1" t="str">
-        <v>FEDEX_TRANSIT_DAYS</v>
+        <v>Service</v>
       </c>
       <c r="R1" t="str">
-        <v>FEDEX_STATUS</v>
+        <v>Rate</v>
+      </c>
+      <c r="S1" t="str">
+        <v>Currency</v>
+      </c>
+      <c r="T1" t="str">
+        <v>Transit Days</v>
+      </c>
+      <c r="U1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="V1" t="str">
+        <v>Error Message</v>
       </c>
     </row>
     <row r="2">
@@ -499,133 +535,3088 @@
         <v>USD</v>
       </c>
       <c r="N2" t="str">
-        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
-      </c>
-      <c r="O2">
-        <v>74.85</v>
+        <v>FedEx</v>
+      </c>
+      <c r="O2" t="str">
+        <v>338574002</v>
       </c>
       <c r="P2" t="str">
-        <v>GBP</v>
+        <v>FEDEX_1</v>
       </c>
       <c r="Q2" t="str">
-        <v>2026-02-07T12:00:00</v>
-      </c>
-      <c r="R2" t="str">
-        <v>SUCCESS</v>
+        <v>INTERNATIONAL_FIRST</v>
+      </c>
+      <c r="R2">
+        <v>101.51</v>
+      </c>
+      <c r="S2" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T2">
+        <v>2</v>
+      </c>
+      <c r="U2" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>SHIP-002</v>
+        <v>SHIP-001</v>
       </c>
       <c r="B3" t="str">
         <v>IN</v>
       </c>
       <c r="C3" t="str">
-        <v>GB</v>
+        <v>US</v>
       </c>
       <c r="D3">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>15</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="H3" t="str">
-        <v>Jane Smith</v>
+        <v>John Doe</v>
       </c>
       <c r="I3" t="str">
-        <v>London</v>
+        <v>New York</v>
       </c>
       <c r="J3" t="str">
-        <v>SW1A 1AA</v>
+        <v>10001</v>
       </c>
       <c r="K3" t="str">
-        <v>GIFT</v>
+        <v>SALE</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="M3" t="str">
-        <v>GBP</v>
+        <v>USD</v>
       </c>
       <c r="N3" t="str">
-        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
-      </c>
-      <c r="O3">
-        <v>118.38</v>
+        <v>FedEx</v>
+      </c>
+      <c r="O3" t="str">
+        <v>338574002</v>
       </c>
       <c r="P3" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="R3" t="str">
-        <v>SUCCESS</v>
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R3">
+        <v>67.68</v>
+      </c>
+      <c r="S3" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T3">
+        <v>2</v>
+      </c>
+      <c r="U3" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>SHIP-003</v>
+        <v>SHIP-001</v>
       </c>
       <c r="B4" t="str">
         <v>IN</v>
       </c>
       <c r="C4" t="str">
-        <v>CA</v>
+        <v>US</v>
       </c>
       <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
+      </c>
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="E4">
-        <v>30</v>
-      </c>
-      <c r="F4">
-        <v>20</v>
-      </c>
-      <c r="G4">
-        <v>20</v>
-      </c>
       <c r="H4" t="str">
-        <v>Alice Johnson</v>
+        <v>John Doe</v>
       </c>
       <c r="I4" t="str">
-        <v>Toronto</v>
+        <v>New York</v>
       </c>
       <c r="J4" t="str">
-        <v>M5V 2H1</v>
+        <v>10001</v>
       </c>
       <c r="K4" t="str">
         <v>SALE</v>
       </c>
       <c r="L4">
+        <v>200</v>
+      </c>
+      <c r="M4" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N4" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O4" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P4" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R4">
+        <v>68.01</v>
+      </c>
+      <c r="S4" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T4">
+        <v>2</v>
+      </c>
+      <c r="U4" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B5" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C5" t="str">
+        <v>US</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>20</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I5" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J5" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K5" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L5">
+        <v>200</v>
+      </c>
+      <c r="M5" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N5" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O5" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P5" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R5">
+        <v>235.89</v>
+      </c>
+      <c r="S5" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V5" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B6" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C6" t="str">
+        <v>US</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I6" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J6" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K6" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L6">
+        <v>200</v>
+      </c>
+      <c r="M6" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N6" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O6" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P6" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R6">
+        <v>55.57</v>
+      </c>
+      <c r="S6" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T6">
+        <v>7</v>
+      </c>
+      <c r="U6" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B7" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C7" t="str">
+        <v>US</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I7" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J7" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K7" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L7">
+        <v>200</v>
+      </c>
+      <c r="M7" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N7" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O7" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P7" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>INTERNATIONAL_FIRST</v>
+      </c>
+      <c r="R7">
+        <v>216.04</v>
+      </c>
+      <c r="S7" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B8" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C8" t="str">
+        <v>US</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I8" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J8" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K8" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L8">
+        <v>200</v>
+      </c>
+      <c r="M8" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N8" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O8" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P8" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q8" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R8">
+        <v>148.18</v>
+      </c>
+      <c r="S8" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T8">
+        <v>2</v>
+      </c>
+      <c r="U8" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B9" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C9" t="str">
+        <v>US</v>
+      </c>
+      <c r="D9">
+        <v>5</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>15</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I9" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J9" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K9" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L9">
+        <v>200</v>
+      </c>
+      <c r="M9" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N9" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O9" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P9" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q9" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R9">
+        <v>141.42</v>
+      </c>
+      <c r="S9" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T9">
+        <v>2</v>
+      </c>
+      <c r="U9" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B10" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C10" t="str">
+        <v>US</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+      <c r="H10" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I10" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J10" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K10" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L10">
+        <v>200</v>
+      </c>
+      <c r="M10" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N10" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O10" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P10" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q10" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R10">
+        <v>235.89</v>
+      </c>
+      <c r="S10" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T10">
+        <v>3</v>
+      </c>
+      <c r="U10" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B11" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C11" t="str">
+        <v>US</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>15</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I11" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J11" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K11" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L11">
+        <v>200</v>
+      </c>
+      <c r="M11" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N11" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O11" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P11" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q11" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R11">
+        <v>117.9</v>
+      </c>
+      <c r="S11" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B12" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C12" t="str">
+        <v>US</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I12" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J12" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K12" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L12">
+        <v>200</v>
+      </c>
+      <c r="M12" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N12" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O12" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P12" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q12" t="str">
+        <v>INTERNATIONAL_FIRST</v>
+      </c>
+      <c r="R12">
+        <v>343.44</v>
+      </c>
+      <c r="S12" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T12">
+        <v>2</v>
+      </c>
+      <c r="U12" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B13" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C13" t="str">
+        <v>US</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I13" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J13" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K13" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L13">
+        <v>200</v>
+      </c>
+      <c r="M13" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N13" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O13" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P13" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q13" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R13">
+        <v>290.38</v>
+      </c>
+      <c r="S13" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T13">
+        <v>2</v>
+      </c>
+      <c r="U13" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B14" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C14" t="str">
+        <v>US</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I14" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J14" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K14" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L14">
+        <v>200</v>
+      </c>
+      <c r="M14" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N14" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O14" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P14" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q14" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R14">
+        <v>277.15</v>
+      </c>
+      <c r="S14" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T14">
+        <v>2</v>
+      </c>
+      <c r="U14" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B15" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C15" t="str">
+        <v>US</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>15</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I15" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J15" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K15" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L15">
+        <v>200</v>
+      </c>
+      <c r="M15" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N15" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O15" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P15" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q15" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R15">
+        <v>249.47</v>
+      </c>
+      <c r="S15" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T15">
+        <v>3</v>
+      </c>
+      <c r="U15" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B16" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C16" t="str">
+        <v>US</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>15</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
+      </c>
+      <c r="H16" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I16" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J16" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K16" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L16">
+        <v>200</v>
+      </c>
+      <c r="M16" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N16" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O16" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P16" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q16" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R16">
+        <v>250.72</v>
+      </c>
+      <c r="S16" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T16">
+        <v>7</v>
+      </c>
+      <c r="U16" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B17" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C17" t="str">
+        <v>US</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>15</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
+      </c>
+      <c r="H17" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I17" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J17" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K17" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N17" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O17" t="str">
+        <v>136171263</v>
+      </c>
+      <c r="P17" t="str">
+        <v>DHL_1</v>
+      </c>
+      <c r="U17" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V17" t="str">
+        <v>fetch failed</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B18" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C18" t="str">
+        <v>US</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
+      </c>
+      <c r="H18" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I18" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J18" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K18" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L18">
+        <v>200</v>
+      </c>
+      <c r="M18" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N18" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O18" t="str">
+        <v>425910155</v>
+      </c>
+      <c r="P18" t="str">
+        <v>DHL_2</v>
+      </c>
+      <c r="U18" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V18" t="str">
+        <v>fetch failed</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>SHIP-001</v>
+      </c>
+      <c r="B19" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C19" t="str">
+        <v>US</v>
+      </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
+      </c>
+      <c r="H19" t="str">
+        <v>John Doe</v>
+      </c>
+      <c r="I19" t="str">
+        <v>New York</v>
+      </c>
+      <c r="J19" t="str">
+        <v>10001</v>
+      </c>
+      <c r="K19" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L19">
+        <v>200</v>
+      </c>
+      <c r="M19" t="str">
+        <v>USD</v>
+      </c>
+      <c r="N19" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O19" t="str">
+        <v>425091463</v>
+      </c>
+      <c r="P19" t="str">
+        <v>DHL_3</v>
+      </c>
+      <c r="U19" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V19" t="str">
+        <v>fetch failed</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B20" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C20" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D20">
+        <v>2.5</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I20" t="str">
+        <v>London</v>
+      </c>
+      <c r="J20" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K20" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+      <c r="M20" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N20" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O20" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P20" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q20" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R20">
+        <v>119.05</v>
+      </c>
+      <c r="S20" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U20" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B21" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C21" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D21">
+        <v>2.5</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>15</v>
+      </c>
+      <c r="H21" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I21" t="str">
+        <v>London</v>
+      </c>
+      <c r="J21" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K21" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L21">
+        <v>50</v>
+      </c>
+      <c r="M21" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N21" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O21" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P21" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q21" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R21">
+        <v>97.96</v>
+      </c>
+      <c r="S21" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U21" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B22" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C22" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D22">
+        <v>2.5</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>15</v>
+      </c>
+      <c r="H22" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I22" t="str">
+        <v>London</v>
+      </c>
+      <c r="J22" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K22" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L22">
+        <v>50</v>
+      </c>
+      <c r="M22" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N22" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O22" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P22" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q22" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R22">
+        <v>163.61</v>
+      </c>
+      <c r="S22" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U22" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B23" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C23" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D23">
+        <v>2.5</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>15</v>
+      </c>
+      <c r="H23" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I23" t="str">
+        <v>London</v>
+      </c>
+      <c r="J23" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K23" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L23">
+        <v>50</v>
+      </c>
+      <c r="M23" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N23" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O23" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P23" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q23" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R23">
+        <v>124.92</v>
+      </c>
+      <c r="S23" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U23" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B24" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C24" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D24">
+        <v>2.5</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>15</v>
+      </c>
+      <c r="H24" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I24" t="str">
+        <v>London</v>
+      </c>
+      <c r="J24" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K24" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L24">
+        <v>50</v>
+      </c>
+      <c r="M24" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N24" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O24" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P24" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q24" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R24">
+        <v>133.11</v>
+      </c>
+      <c r="S24" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U24" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B25" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C25" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D25">
+        <v>2.5</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I25" t="str">
+        <v>London</v>
+      </c>
+      <c r="J25" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K25" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L25">
+        <v>50</v>
+      </c>
+      <c r="M25" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N25" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O25" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P25" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q25" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R25">
+        <v>104.71</v>
+      </c>
+      <c r="S25" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U25" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B26" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C26" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D26">
+        <v>2.5</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>15</v>
+      </c>
+      <c r="H26" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I26" t="str">
+        <v>London</v>
+      </c>
+      <c r="J26" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K26" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L26">
+        <v>50</v>
+      </c>
+      <c r="M26" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N26" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O26" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P26" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q26" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R26">
+        <v>163.61</v>
+      </c>
+      <c r="S26" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U26" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B27" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C27" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D27">
+        <v>2.5</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>15</v>
+      </c>
+      <c r="H27" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I27" t="str">
+        <v>London</v>
+      </c>
+      <c r="J27" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K27" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L27">
+        <v>50</v>
+      </c>
+      <c r="M27" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N27" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O27" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P27" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q27" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R27">
+        <v>139.63</v>
+      </c>
+      <c r="S27" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U27" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B28" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C28" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D28">
+        <v>2.5</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>15</v>
+      </c>
+      <c r="H28" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I28" t="str">
+        <v>London</v>
+      </c>
+      <c r="J28" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K28" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L28">
+        <v>50</v>
+      </c>
+      <c r="M28" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N28" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O28" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P28" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q28" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R28">
+        <v>48.32</v>
+      </c>
+      <c r="S28" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U28" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B29" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C29" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D29">
+        <v>2.5</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>15</v>
+      </c>
+      <c r="H29" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I29" t="str">
+        <v>London</v>
+      </c>
+      <c r="J29" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K29" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L29">
+        <v>50</v>
+      </c>
+      <c r="M29" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N29" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O29" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P29" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q29" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R29">
+        <v>45</v>
+      </c>
+      <c r="S29" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U29" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B30" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C30" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D30">
+        <v>2.5</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>15</v>
+      </c>
+      <c r="H30" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I30" t="str">
+        <v>London</v>
+      </c>
+      <c r="J30" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K30" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L30">
+        <v>50</v>
+      </c>
+      <c r="M30" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N30" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O30" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P30" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q30" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R30">
+        <v>163.61</v>
+      </c>
+      <c r="S30" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U30" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B31" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C31" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D31">
+        <v>2.5</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I31" t="str">
+        <v>London</v>
+      </c>
+      <c r="J31" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K31" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L31">
+        <v>50</v>
+      </c>
+      <c r="M31" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N31" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O31" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P31" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q31" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R31">
+        <v>57.48</v>
+      </c>
+      <c r="S31" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="U31" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B32" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C32" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D32">
+        <v>2.5</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>15</v>
+      </c>
+      <c r="H32" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I32" t="str">
+        <v>London</v>
+      </c>
+      <c r="J32" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K32" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L32">
+        <v>50</v>
+      </c>
+      <c r="M32" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N32" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O32" t="str">
+        <v>136171263</v>
+      </c>
+      <c r="P32" t="str">
+        <v>DHL_1</v>
+      </c>
+      <c r="U32" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V32" t="str">
+        <v>No DHL Rate Found</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B33" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C33" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D33">
+        <v>2.5</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <v>15</v>
+      </c>
+      <c r="G33">
+        <v>15</v>
+      </c>
+      <c r="H33" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I33" t="str">
+        <v>London</v>
+      </c>
+      <c r="J33" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K33" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L33">
+        <v>50</v>
+      </c>
+      <c r="M33" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N33" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O33" t="str">
+        <v>425910155</v>
+      </c>
+      <c r="P33" t="str">
+        <v>DHL_2</v>
+      </c>
+      <c r="U33" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V33" t="str">
+        <v>No DHL Rate Found</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>SHIP-002</v>
+      </c>
+      <c r="B34" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C34" t="str">
+        <v>GB</v>
+      </c>
+      <c r="D34">
+        <v>2.5</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <v>15</v>
+      </c>
+      <c r="G34">
+        <v>15</v>
+      </c>
+      <c r="H34" t="str">
+        <v>Jane Smith</v>
+      </c>
+      <c r="I34" t="str">
+        <v>London</v>
+      </c>
+      <c r="J34" t="str">
+        <v>SW1A 1AA</v>
+      </c>
+      <c r="K34" t="str">
+        <v>GIFT</v>
+      </c>
+      <c r="L34">
+        <v>50</v>
+      </c>
+      <c r="M34" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="N34" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O34" t="str">
+        <v>425091463</v>
+      </c>
+      <c r="P34" t="str">
+        <v>DHL_3</v>
+      </c>
+      <c r="U34" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V34" t="str">
+        <v>No DHL Rate Found</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B35" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C35" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D35">
+        <v>10</v>
+      </c>
+      <c r="E35">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I35" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J35" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K35" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L35">
         <v>500</v>
       </c>
-      <c r="M4" t="str">
+      <c r="M35" t="str">
         <v>CAD</v>
       </c>
-      <c r="N4" t="str">
+      <c r="N35" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O35" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P35" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q35" t="str">
         <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
       </c>
-      <c r="O4">
-        <v>101.37</v>
-      </c>
-      <c r="P4" t="str">
-        <v>GBP</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>2026-02-10T13:30:00</v>
-      </c>
-      <c r="R4" t="str">
-        <v>SUCCESS</v>
+      <c r="R35">
+        <v>102.52</v>
+      </c>
+      <c r="S35" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+      <c r="U35" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B36" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C36" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D36">
+        <v>10</v>
+      </c>
+      <c r="E36">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I36" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J36" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K36" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L36">
+        <v>500</v>
+      </c>
+      <c r="M36" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N36" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O36" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P36" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q36" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R36">
+        <v>102.52</v>
+      </c>
+      <c r="S36" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B37" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C37" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="E37">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I37" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J37" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K37" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L37">
+        <v>500</v>
+      </c>
+      <c r="M37" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N37" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O37" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P37" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q37" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R37">
+        <v>366.13</v>
+      </c>
+      <c r="S37" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T37">
+        <v>4</v>
+      </c>
+      <c r="U37" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B38" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C38" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I38" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J38" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K38" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L38">
+        <v>500</v>
+      </c>
+      <c r="M38" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N38" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O38" t="str">
+        <v>338574002</v>
+      </c>
+      <c r="P38" t="str">
+        <v>FEDEX_1</v>
+      </c>
+      <c r="Q38" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R38">
+        <v>82.88</v>
+      </c>
+      <c r="S38" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T38">
+        <v>8</v>
+      </c>
+      <c r="U38" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B39" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C39" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>20</v>
+      </c>
+      <c r="G39">
+        <v>20</v>
+      </c>
+      <c r="H39" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I39" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J39" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K39" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L39">
+        <v>500</v>
+      </c>
+      <c r="M39" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N39" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O39" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P39" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q39" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R39">
+        <v>226.35</v>
+      </c>
+      <c r="S39" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B40" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C40" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D40">
+        <v>10</v>
+      </c>
+      <c r="E40">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>20</v>
+      </c>
+      <c r="G40">
+        <v>20</v>
+      </c>
+      <c r="H40" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I40" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J40" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K40" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L40">
+        <v>500</v>
+      </c>
+      <c r="M40" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N40" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O40" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P40" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q40" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R40">
+        <v>216.22</v>
+      </c>
+      <c r="S40" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T40">
+        <v>3</v>
+      </c>
+      <c r="U40" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B41" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C41" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D41">
+        <v>10</v>
+      </c>
+      <c r="E41">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>20</v>
+      </c>
+      <c r="G41">
+        <v>20</v>
+      </c>
+      <c r="H41" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I41" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J41" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K41" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L41">
+        <v>500</v>
+      </c>
+      <c r="M41" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N41" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O41" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P41" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q41" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R41">
+        <v>364.21</v>
+      </c>
+      <c r="S41" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T41">
+        <v>4</v>
+      </c>
+      <c r="U41" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B42" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C42" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D42">
+        <v>10</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>20</v>
+      </c>
+      <c r="G42">
+        <v>20</v>
+      </c>
+      <c r="H42" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I42" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J42" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K42" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L42">
+        <v>500</v>
+      </c>
+      <c r="M42" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N42" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O42" t="str">
+        <v>274185376</v>
+      </c>
+      <c r="P42" t="str">
+        <v>FEDEX_2</v>
+      </c>
+      <c r="Q42" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R42">
+        <v>163.84</v>
+      </c>
+      <c r="S42" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T42">
+        <v>8</v>
+      </c>
+      <c r="U42" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B43" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C43" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D43">
+        <v>10</v>
+      </c>
+      <c r="E43">
+        <v>30</v>
+      </c>
+      <c r="F43">
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>20</v>
+      </c>
+      <c r="H43" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I43" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J43" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K43" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L43">
+        <v>500</v>
+      </c>
+      <c r="M43" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N43" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O43" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P43" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q43" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY_EXPRESS</v>
+      </c>
+      <c r="R43">
+        <v>438.86</v>
+      </c>
+      <c r="S43" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T43">
+        <v>3</v>
+      </c>
+      <c r="U43" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B44" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C44" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D44">
+        <v>10</v>
+      </c>
+      <c r="E44">
+        <v>30</v>
+      </c>
+      <c r="F44">
+        <v>20</v>
+      </c>
+      <c r="G44">
+        <v>20</v>
+      </c>
+      <c r="H44" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I44" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J44" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K44" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L44">
+        <v>500</v>
+      </c>
+      <c r="M44" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N44" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O44" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P44" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q44" t="str">
+        <v>FEDEX_INTERNATIONAL_PRIORITY</v>
+      </c>
+      <c r="R44">
+        <v>418.59</v>
+      </c>
+      <c r="S44" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T44">
+        <v>3</v>
+      </c>
+      <c r="U44" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B45" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C45" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+      <c r="E45">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>20</v>
+      </c>
+      <c r="G45">
+        <v>20</v>
+      </c>
+      <c r="H45" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I45" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J45" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K45" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L45">
+        <v>500</v>
+      </c>
+      <c r="M45" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N45" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O45" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P45" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q45" t="str">
+        <v>FEDEX_INTERNATIONAL_CONNECT_PLUS</v>
+      </c>
+      <c r="R45">
+        <v>378.09</v>
+      </c>
+      <c r="S45" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T45">
+        <v>4</v>
+      </c>
+      <c r="U45" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B46" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C46" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>30</v>
+      </c>
+      <c r="F46">
+        <v>20</v>
+      </c>
+      <c r="G46">
+        <v>20</v>
+      </c>
+      <c r="H46" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I46" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J46" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K46" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L46">
+        <v>500</v>
+      </c>
+      <c r="M46" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N46" t="str">
+        <v>FedEx</v>
+      </c>
+      <c r="O46" t="str">
+        <v>291194681</v>
+      </c>
+      <c r="P46" t="str">
+        <v>FEDEX_3</v>
+      </c>
+      <c r="Q46" t="str">
+        <v>INTERNATIONAL_ECONOMY</v>
+      </c>
+      <c r="R46">
+        <v>378.09</v>
+      </c>
+      <c r="S46" t="str">
+        <v>GBP</v>
+      </c>
+      <c r="T46">
+        <v>8</v>
+      </c>
+      <c r="U46" t="str">
+        <v>SUCCESS</v>
+      </c>
+      <c r="V46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B47" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C47" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D47">
+        <v>10</v>
+      </c>
+      <c r="E47">
+        <v>30</v>
+      </c>
+      <c r="F47">
+        <v>20</v>
+      </c>
+      <c r="G47">
+        <v>20</v>
+      </c>
+      <c r="H47" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I47" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J47" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K47" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L47">
+        <v>500</v>
+      </c>
+      <c r="M47" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N47" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O47" t="str">
+        <v>136171263</v>
+      </c>
+      <c r="P47" t="str">
+        <v>DHL_1</v>
+      </c>
+      <c r="U47" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V47" t="str">
+        <v>No DHL Rate Found</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B48" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C48" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="E48">
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <v>20</v>
+      </c>
+      <c r="G48">
+        <v>20</v>
+      </c>
+      <c r="H48" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I48" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J48" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K48" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L48">
+        <v>500</v>
+      </c>
+      <c r="M48" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N48" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O48" t="str">
+        <v>425910155</v>
+      </c>
+      <c r="P48" t="str">
+        <v>DHL_2</v>
+      </c>
+      <c r="U48" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V48" t="str">
+        <v>No DHL Rate Found</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>SHIP-003</v>
+      </c>
+      <c r="B49" t="str">
+        <v>IN</v>
+      </c>
+      <c r="C49" t="str">
+        <v>CA</v>
+      </c>
+      <c r="D49">
+        <v>10</v>
+      </c>
+      <c r="E49">
+        <v>30</v>
+      </c>
+      <c r="F49">
+        <v>20</v>
+      </c>
+      <c r="G49">
+        <v>20</v>
+      </c>
+      <c r="H49" t="str">
+        <v>Alice Johnson</v>
+      </c>
+      <c r="I49" t="str">
+        <v>Toronto</v>
+      </c>
+      <c r="J49" t="str">
+        <v>M5V 2H1</v>
+      </c>
+      <c r="K49" t="str">
+        <v>SALE</v>
+      </c>
+      <c r="L49">
+        <v>500</v>
+      </c>
+      <c r="M49" t="str">
+        <v>CAD</v>
+      </c>
+      <c r="N49" t="str">
+        <v>DHL</v>
+      </c>
+      <c r="O49" t="str">
+        <v>425091463</v>
+      </c>
+      <c r="P49" t="str">
+        <v>DHL_3</v>
+      </c>
+      <c r="U49" t="str">
+        <v>ERROR</v>
+      </c>
+      <c r="V49" t="str">
+        <v>No DHL Rate Found</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:R4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:V49"/>
   </ignoredErrors>
 </worksheet>
 </file>